--- a/spikes/Spike30-EDS-Decision-Criteria.xlsx
+++ b/spikes/Spike30-EDS-Decision-Criteria.xlsx
@@ -8,14 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="Comparison" sheetId="1" r:id="rId1"/>
-    <sheet name="Descriptions" sheetId="2" r:id="rId2"/>
+    <sheet name="Service Levels" sheetId="3" r:id="rId2"/>
+    <sheet name="Descriptions" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="130">
   <si>
     <t>StrongLoop</t>
   </si>
@@ -24,29 +25,6 @@
   </si>
   <si>
     <t>N</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Self serve</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Access for API owners (access their API key)</t>
-    </r>
   </si>
   <si>
     <t>Comments</t>
@@ -366,9 +344,6 @@
     <t>Ability to generate, manage and utilize</t>
   </si>
   <si>
-    <t xml:space="preserve">Implent and configure </t>
-  </si>
-  <si>
     <t>Multi-tier access and performance level
 (anonymous vs key)</t>
   </si>
@@ -627,12 +602,6 @@
     <t>* = Core requirements (not necessarily all in first release)</t>
   </si>
   <si>
-    <t>Hosting</t>
-  </si>
-  <si>
-    <t>Needs testing</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -714,17 +683,178 @@
     <t>Strongloop - LoopBack access control</t>
   </si>
   <si>
-    <t>Out of scope:</t>
-  </si>
-  <si>
-    <t>API Catalogue, API documentation standards</t>
+    <t>WSO2</t>
+  </si>
+  <si>
+    <t>Mashape</t>
+  </si>
+  <si>
+    <t>SwaggerIO</t>
+  </si>
+  <si>
+    <t>Engagement Level in Ascending Order</t>
+  </si>
+  <si>
+    <t>Self Serviceable?</t>
+  </si>
+  <si>
+    <t>Provider Activity</t>
+  </si>
+  <si>
+    <t>Feature Needed</t>
+  </si>
+  <si>
+    <t>Advertisement Only</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>supply swagger URL</t>
+  </si>
+  <si>
+    <t>API explorer;</t>
+  </si>
+  <si>
+    <t>search;</t>
+  </si>
+  <si>
+    <t>code snippet;</t>
+  </si>
+  <si>
+    <t>Extended Channel</t>
+  </si>
+  <si>
+    <t>compose swagger</t>
+  </si>
+  <si>
+    <t>+ API gateway;</t>
+  </si>
+  <si>
+    <t>swagger composer</t>
+  </si>
+  <si>
+    <t>Exclusive Channel</t>
+  </si>
+  <si>
+    <t>(Migrate Domain)</t>
+  </si>
+  <si>
+    <t>+ supply SSL cert files</t>
+  </si>
+  <si>
+    <t>change existing DNS to a CNAME</t>
+  </si>
+  <si>
+    <t>+ dynamic SSL cert selector</t>
+  </si>
+  <si>
+    <t>Simple hosted repo with CRUD operation</t>
+  </si>
+  <si>
+    <t>Create data model via GUI</t>
+  </si>
+  <si>
+    <t>+ modeler</t>
+  </si>
+  <si>
+    <t>Complex hosted repo</t>
+  </si>
+  <si>
+    <t>(custom code to transform data)</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>+ supply custom code via PR</t>
+  </si>
+  <si>
+    <t>GitHub!</t>
+  </si>
+  <si>
+    <t>Simplified Version</t>
+  </si>
+  <si>
+    <t>1, ADs level (client has everything like TransLink, maybe NRPP)</t>
+  </si>
+  <si>
+    <t>2, WOW level (client has existing service like MOT)</t>
+  </si>
+  <si>
+    <t>devx provide services 1+ additional service like mashape</t>
+  </si>
+  <si>
+    <t>API gateway(kong)</t>
+  </si>
+  <si>
+    <t>API definition and references (gelato)</t>
+  </si>
+  <si>
+    <t>API stats (galileo)</t>
+  </si>
+  <si>
+    <t>Note: premium level including additional CNAMES for using devx domain.</t>
+  </si>
+  <si>
+    <t>3, VIP​ level (client has nothing or just an idea in mind)</t>
+  </si>
+  <si>
+    <t>devx provides services 1+2+ additonal service using platform like StrongLoop creating simple model apps or complex apps base on clients' data availability</t>
+  </si>
+  <si>
+    <t>devx maybe also providing hosting via cloud service providers.</t>
+  </si>
+  <si>
+    <t>devx provides swagger ui like http://uat-api.bcdevexchange.org/apidocs/ with devx branding including UI changes…also provide swagger editor as well like http://sandbox.apis.gov.bc.ca with github oauth2, so client can edit/validate the swagger file online and save to github gist or their own repo.</t>
+  </si>
+  <si>
+    <t>Support for CORS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement and configure </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Self-serve</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Access for API owners (access their API key)</t>
+    </r>
+  </si>
+  <si>
+    <t>Simple</t>
+  </si>
+  <si>
+    <t>Easy</t>
+  </si>
+  <si>
+    <t>Future admin app by Mashape or we build UI to communication via REST</t>
+  </si>
+  <si>
+    <t>Gateway Hosting</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -755,8 +885,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -789,18 +925,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="61">
     <border>
       <left/>
       <right/>
@@ -1044,19 +1192,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1190,9 +1325,405 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1202,7 +1733,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1211,18 +1742,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1231,9 +1756,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1241,9 +1763,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1276,9 +1795,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1295,70 +1811,285 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="57" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="59" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1662,613 +2393,732 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" style="26" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" style="20" customWidth="1"/>
     <col min="2" max="2" width="59.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="28.5703125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="28.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="21"/>
+      <c r="C3" s="63" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="65"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="67" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="119" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="45"/>
+      <c r="I4" s="62" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="100" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="124" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="82"/>
+      <c r="H5" s="141" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="46"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="101" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="125" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="139" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="142" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="47"/>
+    </row>
+    <row r="7" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="30"/>
+      <c r="B7" s="109" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="110" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="111" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="126" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="140"/>
+      <c r="H7" s="143" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="52"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="122" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="120" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="127" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="144" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="47" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="123"/>
+      <c r="B9" s="121" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="48"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="113" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="114" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="73"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="128" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="56"/>
+    </row>
+    <row r="11" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="34"/>
+      <c r="E11" s="103" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="125" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="139" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="142" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="47" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="26"/>
+      <c r="B12" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="74"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="129" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="145"/>
+      <c r="H12" s="143" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="48" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="75"/>
+      <c r="D13" s="101" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="125" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="80"/>
+      <c r="I13" s="47" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="28"/>
+      <c r="B14" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="76"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="49"/>
+    </row>
+    <row r="15" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="29"/>
+      <c r="B15" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="74"/>
+      <c r="D15" s="102" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="129" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="48"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" s="51"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="26"/>
+      <c r="B17" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="102" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="130"/>
+      <c r="G17" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17" s="50"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="75"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="47"/>
+    </row>
+    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="30"/>
+      <c r="B19" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="78" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="35"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="49"/>
+    </row>
+    <row r="20" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="24"/>
+      <c r="B20" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="74"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="129" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="48"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="79" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="101" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="38"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="83"/>
+      <c r="I21" s="47"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="26"/>
+      <c r="B22" s="107" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="73"/>
+      <c r="D22" s="108" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="54"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="112"/>
+      <c r="I22" s="56"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="131" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="103" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="103" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="117"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="28"/>
+      <c r="B24" s="136" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="137" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="134" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="118" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="28"/>
+      <c r="B25" s="136" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" s="138" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="137" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="134"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="118"/>
+    </row>
+    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="28"/>
+      <c r="B26" s="132" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="115" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I26" s="118"/>
+    </row>
+    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="28"/>
+      <c r="B27" s="132" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="146"/>
+      <c r="F27" s="115" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" s="6"/>
+      <c r="I27" s="118"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="28"/>
+      <c r="B28" s="132" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="70"/>
-      <c r="H4" s="81"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="17"/>
-    </row>
-    <row r="6" spans="1:8" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
-      <c r="B6" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="72"/>
-      <c r="H6" s="18"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="17" t="s">
+      <c r="C28" s="33" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="32"/>
-      <c r="B8" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="73" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="18"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="70"/>
-      <c r="H9" s="81"/>
-    </row>
-    <row r="10" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="32"/>
-      <c r="B11" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="72"/>
-      <c r="H11" s="18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
-      <c r="B13" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="43"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="82"/>
-    </row>
-    <row r="14" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="36"/>
-      <c r="B14" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="72"/>
-      <c r="H14" s="18"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" s="47"/>
-      <c r="G15" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" s="17"/>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="32"/>
-      <c r="B16" s="62" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" s="49"/>
-      <c r="G16" s="75" t="s">
-        <v>1</v>
-      </c>
-      <c r="H16" s="83"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="17"/>
-    </row>
-    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
-      <c r="B18" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="82"/>
-    </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="30"/>
-      <c r="B19" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" s="44"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="72"/>
-      <c r="H19" s="18"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="C20" s="85" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="17"/>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="32"/>
-      <c r="B21" s="62" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="51"/>
-      <c r="D21" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="83"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" s="42"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
-      <c r="B23" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="54"/>
-      <c r="D23" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="79" t="s">
-        <v>1</v>
-      </c>
-      <c r="H23" s="84" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
-      <c r="B24" s="63" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="82"/>
-    </row>
-    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="35"/>
-      <c r="B25" s="63" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="84"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="35"/>
-      <c r="B26" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="82" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="35"/>
-      <c r="B27" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" s="56"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="82" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="35"/>
-      <c r="B28" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="43"/>
-      <c r="D28" s="11" t="s">
-        <v>1</v>
+      <c r="D28" s="33" t="s">
+        <v>126</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="82" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="35"/>
-      <c r="B29" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" s="57"/>
-      <c r="D29" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="79" t="s">
-        <v>1</v>
-      </c>
-      <c r="H29" s="84"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="35"/>
-      <c r="B30" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="41" t="s">
-        <v>13</v>
+      <c r="G28" s="3"/>
+      <c r="H28" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="I28" s="118"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="28"/>
+      <c r="B29" s="132" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="I29" s="118"/>
+    </row>
+    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="28"/>
+      <c r="B30" s="132" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="116" t="s">
+        <v>1</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="82"/>
-    </row>
-    <row r="31" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="30"/>
-      <c r="B31" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="C31" s="44"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="118"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="28"/>
+      <c r="B31" s="133" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="116" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="134" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" s="134" t="s">
+        <v>1</v>
+      </c>
+      <c r="I31" s="118"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="28"/>
+      <c r="B32" s="132" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="33" t="s">
+        <v>12</v>
+      </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="74"/>
-      <c r="H32" s="82"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="38"/>
-      <c r="B33" s="65" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" s="40" t="s">
+      <c r="G32" s="3"/>
+      <c r="H32" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" s="118"/>
+    </row>
+    <row r="33" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="28"/>
+      <c r="B33" s="147" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="148"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="148"/>
+      <c r="I33" s="149"/>
+    </row>
+    <row r="34" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="150" t="s">
+        <v>125</v>
+      </c>
+      <c r="C34" s="153" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H34" s="154" t="s">
+        <v>10</v>
+      </c>
+      <c r="I34" s="47" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="31"/>
+      <c r="B35" s="151" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="155" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="74"/>
-      <c r="H33" s="82"/>
-    </row>
-    <row r="34" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="32"/>
-      <c r="B34" s="21" t="s">
+      <c r="E35" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H35" s="158" t="s">
+        <v>1</v>
+      </c>
+      <c r="I35" s="49"/>
+    </row>
+    <row r="36" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="26"/>
+      <c r="B36" s="152" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="157" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="159" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" s="160" t="s">
+        <v>2</v>
+      </c>
+      <c r="F36" s="160" t="s">
+        <v>2</v>
+      </c>
+      <c r="G36" s="5"/>
+      <c r="H36" s="156"/>
+      <c r="I36" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="D34" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="72"/>
-      <c r="H34" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="86" t="s">
-        <v>85</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="57" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+    </row>
+    <row r="58" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
@@ -2280,10 +3130,244 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:E28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D12:D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="63.42578125" customWidth="1"/>
+    <col min="3" max="5" width="34" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="89" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:5" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="86" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="87" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="87" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="161" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="164" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="164" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="92" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="162"/>
+      <c r="C5" s="165"/>
+      <c r="D5" s="165"/>
+      <c r="E5" s="84" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="163"/>
+      <c r="C6" s="166"/>
+      <c r="D6" s="166"/>
+      <c r="E6" s="95" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="167" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="169" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="169" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="85" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="168"/>
+      <c r="C8" s="170"/>
+      <c r="D8" s="170"/>
+      <c r="E8" s="96" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="97" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="171" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="98" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="173" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="94" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="172"/>
+      <c r="D10" s="99" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" s="174"/>
+    </row>
+    <row r="11" spans="2:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="91" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="90" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="90" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="85" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="93" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="175" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="165" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" s="176" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="94" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="172"/>
+      <c r="D13" s="166"/>
+      <c r="E13" s="174"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="106" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="105" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="135" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="105"/>
+    </row>
+    <row r="19" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="105" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="105" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="105" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="105" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="105" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="105" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="105"/>
+    </row>
+    <row r="26" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="105" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="105" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="105" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2295,70 +3379,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="14" t="s">
+      <c r="B2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="15" t="s">
         <v>41</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>39</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>31</v>
+        <v>37</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="15" t="s">
         <v>35</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -2366,8 +3450,8 @@
         <v>0</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="15" t="s">
-        <v>45</v>
+      <c r="D8" s="11" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
